--- a/documentation/Requirements & DDD.xlsx
+++ b/documentation/Requirements & DDD.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D588DF02-CE97-4E07-B7C6-B82CEA9C8040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\School\giethoorn_harbor_solarch\documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EE1DD-A7F4-4982-82DE-7C7B09EB885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2130" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -1421,7 +1426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,8 +1706,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1718,7 +1723,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600075" y="400050"/>
-          <a:ext cx="2638425" cy="6810375"/>
+          <a:ext cx="2638425" cy="7172325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2044,6 +2049,19 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>- length: Integer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>- is_cleared: boolean</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6038,184 +6056,6 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>- grossTonnage: Integer</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AF480A-3485-4B4E-B8DE-352C89794BB7}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E916F675-9F68-43A6-8EE1-34EEEDC84722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="771525" y="10287000"/>
-          <a:ext cx="3114675" cy="2038350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>TO ADD</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Traffic control - Ship: IsCleared boolean status</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Traffic control - Dock: Company name</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6614,7 +6454,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" customWidth="1"/>
@@ -6623,12 +6463,12 @@
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="26.25">
+    <row r="2" spans="2:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -6639,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30.75">
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -6648,7 +6488,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" ht="30.75">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -6657,7 +6497,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="30.75">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -6666,7 +6506,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="45.75">
+    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -6675,7 +6515,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" ht="30.75">
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -6684,7 +6524,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" ht="30.75">
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -6693,7 +6533,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" ht="30.75">
+    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -6704,7 +6544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30.75">
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -6713,7 +6553,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" ht="30.75">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -6722,7 +6562,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" ht="30.75">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -6731,7 +6571,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" ht="30.75">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -6740,7 +6580,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" ht="30.75">
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -6749,7 +6589,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" ht="30.75">
+    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -6758,7 +6598,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" ht="30.75">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>31</v>
       </c>
@@ -6767,7 +6607,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -6776,7 +6616,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -6785,7 +6625,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" ht="30.75">
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>37</v>
       </c>
@@ -6794,7 +6634,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" ht="45.75">
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>39</v>
       </c>
@@ -6803,7 +6643,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" ht="30.75">
+    <row r="22" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
@@ -6814,7 +6654,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30.75">
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>44</v>
       </c>
@@ -6825,7 +6665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30.75">
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>47</v>
       </c>
@@ -6834,7 +6674,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" ht="30.75">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>49</v>
       </c>
@@ -6859,7 +6699,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" customWidth="1"/>
@@ -6869,12 +6709,12 @@
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="26.25">
+    <row r="2" spans="2:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -6888,7 +6728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -6899,7 +6739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
@@ -6907,7 +6747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30.75">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
@@ -6915,7 +6755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
@@ -6923,7 +6763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
@@ -6931,7 +6771,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
@@ -6939,7 +6779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
@@ -6950,7 +6790,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
@@ -6961,7 +6801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
@@ -6969,7 +6809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>75</v>
       </c>
@@ -6977,7 +6817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30.75">
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
@@ -6985,7 +6825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
@@ -6993,7 +6833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>80</v>
       </c>
@@ -7001,7 +6841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
@@ -7009,7 +6849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
@@ -7017,7 +6857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
@@ -7025,7 +6865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="30.75">
+    <row r="20" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
@@ -7049,13 +6889,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
@@ -7063,7 +6903,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75">
+    <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>91</v>
       </c>
@@ -7071,27 +6911,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>97</v>
       </c>
@@ -7099,7 +6939,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>98</v>
       </c>
@@ -7107,7 +6947,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>99</v>
       </c>
@@ -7115,7 +6955,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>100</v>
       </c>
@@ -7123,7 +6963,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>101</v>
       </c>
@@ -7134,13 +6974,13 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -7149,40 +6989,40 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="12:14">
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="12:14">
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="12:14">
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="12:14">
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="12:14">
+    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="12:14">
+    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L22" s="9"/>
       <c r="N22" s="9"/>
     </row>
@@ -7200,18 +7040,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="80.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="26.25">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -7219,7 +7059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>106</v>
       </c>
@@ -7227,7 +7067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -7235,7 +7075,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>110</v>
       </c>
@@ -7243,7 +7083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -7251,7 +7091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -7259,7 +7099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>116</v>
       </c>
@@ -7267,7 +7107,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>118</v>
       </c>
@@ -7275,7 +7115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>120</v>
       </c>
@@ -7283,7 +7123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -7291,7 +7131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>124</v>
       </c>
@@ -7299,7 +7139,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>126</v>
       </c>
@@ -7307,7 +7147,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -7315,7 +7155,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>130</v>
       </c>
@@ -7323,7 +7163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>132</v>
       </c>
@@ -7343,11 +7183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA168E-8877-496D-AFA0-6E813D415A6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7362,7 +7202,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
@@ -7378,7 +7218,7 @@
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="26.25">
+    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
@@ -7386,7 +7226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7427,7 +7267,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -7457,7 +7297,7 @@
         <v>EP-DR-01</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>140</v>
       </c>
@@ -7475,7 +7315,7 @@
         <v>EP-S-01</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>143</v>
       </c>
@@ -7501,7 +7341,7 @@
         <v>EP-C-02</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>146</v>
       </c>
@@ -7519,7 +7359,7 @@
         <v>EP-S-03</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>149</v>
       </c>
@@ -7533,7 +7373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>152</v>
       </c>
@@ -7559,7 +7399,7 @@
         <v>EP-C-03</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>155</v>
       </c>
@@ -7585,7 +7425,7 @@
         <v>EP-C-04</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>158</v>
       </c>
@@ -7611,7 +7451,7 @@
         <v>EP-C-05</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>161</v>
       </c>
@@ -7637,7 +7477,7 @@
         <v>EP-C-06</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>164</v>
       </c>
@@ -7663,7 +7503,7 @@
         <v>EP-C-07</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>167</v>
       </c>
@@ -7681,7 +7521,7 @@
         <v>EP-P-01</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>170</v>
       </c>
@@ -7699,7 +7539,7 @@
         <v>EP-P-02</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>173</v>
       </c>
@@ -7721,7 +7561,7 @@
         <v>EP-B-02</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>176</v>
       </c>
@@ -7743,7 +7583,7 @@
         <v>EP-B-03</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>179</v>
       </c>
@@ -7769,7 +7609,7 @@
         <v>EP-B-04</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>182</v>
       </c>
@@ -7795,7 +7635,7 @@
         <v>EP-B-05</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>185</v>
       </c>
@@ -7813,7 +7653,7 @@
         <v>EP-M-01</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>188</v>
       </c>
@@ -7831,7 +7671,7 @@
         <v>EP-B-06</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>191</v>
       </c>
@@ -7853,7 +7693,7 @@
         <v>EP-B-07</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>194</v>
       </c>
@@ -7875,7 +7715,7 @@
         <v>EP-B-08</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>197</v>
       </c>
@@ -7906,7 +7746,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -7918,13 +7758,13 @@
     <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="26.25">
+    <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -7947,7 +7787,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>205</v>
       </c>
@@ -7970,7 +7810,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>207</v>
       </c>
@@ -7993,7 +7833,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>209</v>
       </c>
@@ -8016,7 +7856,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>210</v>
       </c>
@@ -8039,7 +7879,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>212</v>
       </c>
@@ -8062,7 +7902,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>214</v>
       </c>
@@ -8085,7 +7925,7 @@
         <v>DE-T-06</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>215</v>
       </c>
@@ -8107,7 +7947,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>218</v>
       </c>
@@ -8130,7 +7970,7 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>220</v>
       </c>
@@ -8152,7 +7992,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>222</v>
       </c>
@@ -8174,7 +8014,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>224</v>
       </c>
@@ -8196,7 +8036,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>226</v>
       </c>
@@ -8218,7 +8058,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>228</v>
       </c>
@@ -8240,7 +8080,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>230</v>
       </c>
@@ -8262,7 +8102,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>232</v>
       </c>
@@ -8284,7 +8124,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>234</v>
       </c>
@@ -8306,7 +8146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>236</v>
       </c>
@@ -8328,7 +8168,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>238</v>
       </c>
@@ -8351,7 +8191,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>240</v>
       </c>
@@ -8377,7 +8217,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>244</v>
       </c>
@@ -8399,7 +8239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>246</v>
       </c>
@@ -8422,7 +8262,7 @@
       </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>247</v>
       </c>
@@ -8444,7 +8284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>249</v>
       </c>
@@ -8466,7 +8306,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>251</v>
       </c>
@@ -8488,7 +8328,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>252</v>
       </c>
@@ -8510,7 +8350,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>254</v>
       </c>
@@ -8533,7 +8373,7 @@
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>256</v>
       </c>
@@ -8555,7 +8395,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>258</v>
       </c>
@@ -8577,7 +8417,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>260</v>
       </c>
@@ -8599,7 +8439,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>261</v>
       </c>
@@ -8626,7 +8466,7 @@
         <v>DE-C-02</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>263</v>
       </c>
@@ -8648,7 +8488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>265</v>
       </c>
@@ -8670,7 +8510,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>266</v>
       </c>
@@ -8693,7 +8533,7 @@
       </c>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>267</v>
       </c>
@@ -8715,7 +8555,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>268</v>
       </c>
@@ -8738,7 +8578,7 @@
         <v>DE-B-01</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>270</v>
       </c>
@@ -8761,7 +8601,7 @@
         <v>DE-B-01</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>271</v>
       </c>
@@ -8784,7 +8624,7 @@
         <v>DE-B-01</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>272</v>
       </c>
@@ -8807,7 +8647,7 @@
         <v>DE-B-01</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>273</v>
       </c>
@@ -8830,7 +8670,7 @@
         <v>DE-B-01</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>275</v>
       </c>
@@ -8852,7 +8692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>277</v>
       </c>
@@ -8875,7 +8715,7 @@
       </c>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>278</v>
       </c>

--- a/documentation/Requirements & DDD.xlsx
+++ b/documentation/Requirements & DDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\School\giethoorn_harbor_solarch\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\giethoorn_harbor_solarch\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EE1DD-A7F4-4982-82DE-7C7B09EB885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13ADF1-2962-4815-B4E4-083E8D46DA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2130" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="280">
   <si>
     <t>Functional Requirements</t>
   </si>
@@ -1170,9 +1170,6 @@
     <t>A Lease on a dock has expired.</t>
   </si>
   <si>
-    <t>[Logging] InvoiceHasBeenMailed</t>
-  </si>
-  <si>
     <t>Event Processors</t>
   </si>
   <si>
@@ -1426,7 +1423,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,14 +1521,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1585,7 +1574,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7183,7 +7172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA168E-8877-496D-AFA0-6E813D415A6C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
@@ -7196,10 +7185,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621A3E88-5073-4F80-911C-2C8DC303C140}">
-  <dimension ref="B2:N28"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7715,11 +7704,6 @@
         <v>EP-B-08</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>197</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F4:N44">
     <cfRule type="notContainsBlanks" dxfId="5" priority="3">
@@ -7732,8 +7716,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7742,8 +7727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A33E68-10B1-4147-A1D5-D94D73AE1251}">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7760,7 +7745,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -7769,27 +7754,27 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>200</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>201</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>202</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>203</v>
-      </c>
-      <c r="H3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" t="str">
         <f>'Domain Events'!B10</f>
@@ -7803,7 +7788,7 @@
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" t="str">
         <f>'Domain Events'!B9</f>
@@ -7812,7 +7797,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="str">
         <f>'Domain Events'!B11</f>
@@ -7826,7 +7811,7 @@
         <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="11" t="str">
         <f>'Domain Events'!B9</f>
@@ -7835,7 +7820,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="str">
         <f>'Domain Events'!B12</f>
@@ -7849,7 +7834,7 @@
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>'Domain Events'!B9</f>
@@ -7858,7 +7843,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="str">
         <f>'Domain Events'!B13</f>
@@ -7872,7 +7857,7 @@
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="11" t="str">
         <f>'Domain Events'!B9</f>
@@ -7881,7 +7866,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" t="str">
         <f>'Domain Events'!B18</f>
@@ -7895,7 +7880,7 @@
         <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="11" t="str">
         <f>'Domain Events'!B9</f>
@@ -7904,7 +7889,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" t="str">
         <f>'Domain Events'!B19</f>
@@ -7918,7 +7903,7 @@
         <v>94</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G9" s="11" t="str">
         <f>'Domain Events'!B9</f>
@@ -7927,7 +7912,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" t="str">
         <f>'Domain Events'!B22</f>
@@ -7941,15 +7926,15 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" t="s">
         <v>216</v>
-      </c>
-      <c r="G10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="14" t="str">
         <f>'Domain Events'!B23</f>
@@ -7963,16 +7948,16 @@
         <v>94</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" t="str">
         <f>'Domain Events'!B5</f>
@@ -7986,15 +7971,15 @@
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" t="str">
         <f>'Domain Events'!B6</f>
@@ -8008,15 +7993,15 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" t="str">
         <f>'Domain Events'!B7</f>
@@ -8030,15 +8015,15 @@
         <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" t="str">
         <f>'Domain Events'!B9</f>
@@ -8052,15 +8037,15 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" t="str">
         <f>'Domain Events'!B10</f>
@@ -8074,15 +8059,15 @@
         <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" t="str">
         <f>'Domain Events'!B11</f>
@@ -8096,15 +8081,15 @@
         <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" t="str">
         <f>'Domain Events'!B12</f>
@@ -8118,15 +8103,15 @@
         <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C19" t="str">
         <f>'Domain Events'!B13</f>
@@ -8140,15 +8125,15 @@
         <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" t="str">
         <f>'Domain Events'!B18</f>
@@ -8162,15 +8147,15 @@
         <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" s="14" t="str">
         <f>'Domain Events'!B19</f>
@@ -8184,16 +8169,16 @@
         <v>95</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="14" t="str">
         <f>'Domain Events'!B20</f>
@@ -8207,19 +8192,19 @@
         <v>93</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>242</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" t="str">
         <f>'Domain Events'!B14</f>
@@ -8233,15 +8218,15 @@
         <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="14" t="str">
         <f>'Domain Events'!B15</f>
@@ -8255,16 +8240,16 @@
         <v>99</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" t="str">
         <f>'Domain Events'!B4</f>
@@ -8278,15 +8263,15 @@
         <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" t="str">
         <f>'Domain Events'!B6</f>
@@ -8300,15 +8285,15 @@
         <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" t="str">
         <f>'Domain Events'!B9</f>
@@ -8322,15 +8307,15 @@
         <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" t="str">
         <f>'Domain Events'!B16</f>
@@ -8344,15 +8329,15 @@
         <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="14" t="str">
         <f>'Domain Events'!B17</f>
@@ -8366,16 +8351,16 @@
         <v>98</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C30" t="str">
         <f>'Domain Events'!B4</f>
@@ -8389,15 +8374,15 @@
         <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" t="str">
         <f>'Domain Events'!B6</f>
@@ -8411,15 +8396,15 @@
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" t="str">
         <f>'Domain Events'!B9</f>
@@ -8433,15 +8418,15 @@
         <v>96</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" t="str">
         <f>'Domain Events'!B10</f>
@@ -8455,7 +8440,7 @@
         <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" t="str">
         <f>'Domain Events'!B18</f>
@@ -8468,7 +8453,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" t="str">
         <f>'Domain Events'!B11</f>
@@ -8482,15 +8467,15 @@
         <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" t="str">
         <f>'Domain Events'!B12</f>
@@ -8504,15 +8489,15 @@
         <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="14" t="str">
         <f>'Domain Events'!B13</f>
@@ -8526,16 +8511,16 @@
         <v>96</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" t="str">
         <f>'Domain Events'!B4</f>
@@ -8549,15 +8534,15 @@
         <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" t="str">
         <f>'Domain Events'!B16</f>
@@ -8571,7 +8556,7 @@
         <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G38" t="str">
         <f>'Domain Events'!B20</f>
@@ -8580,7 +8565,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" t="str">
         <f>'Domain Events'!B17</f>
@@ -8594,7 +8579,7 @@
         <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G39" t="str">
         <f>'Domain Events'!B20</f>
@@ -8603,7 +8588,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C40" t="str">
         <f>'Domain Events'!B18</f>
@@ -8617,7 +8602,7 @@
         <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G40" t="str">
         <f>'Domain Events'!B20</f>
@@ -8626,7 +8611,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C41" t="str">
         <f>'Domain Events'!B19</f>
@@ -8640,7 +8625,7 @@
         <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G41" t="str">
         <f>'Domain Events'!B20</f>
@@ -8649,7 +8634,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" t="str">
         <f>'Domain Events'!B21</f>
@@ -8663,7 +8648,7 @@
         <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G42" s="11" t="str">
         <f>'Domain Events'!B20</f>
@@ -8672,7 +8657,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" t="str">
         <f>'Domain Events'!B22</f>
@@ -8686,15 +8671,15 @@
         <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C44" s="14" t="str">
         <f>'Domain Events'!B23</f>
@@ -8708,19 +8693,19 @@
         <v>97</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
         <v>278</v>
-      </c>
-      <c r="B45" t="s">
-        <v>279</v>
       </c>
       <c r="C45" t="str">
         <f>'Domain Events'!B4</f>
@@ -8734,10 +8719,10 @@
         <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
